--- a/Plan de Test.xlsx
+++ b/Plan de Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Git\JWDP5\JWDP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74024331-ED18-42A7-8764-0EBCB019098E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B85184-8E4F-49BB-946C-E6AFB0E6D63D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8B526EB1-2F09-4841-9884-4E1F77679833}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -63,24 +63,15 @@
     <t>fetchUse</t>
   </si>
   <si>
-    <t>Observer la valeur retournée dans la console Google Chrome avec un console,log par exemple, Ou changer une partie de l'URL(ce qui ne donnera pas de résultat)</t>
-  </si>
-  <si>
     <t>La fonction doit effectuer une promise vers l'URL donnée (API)</t>
   </si>
   <si>
-    <t>Si la fonction/URL est mal décrite, alors il n'y aura pas de promise vers l'API</t>
-  </si>
-  <si>
     <t>Ligne 6 a 36</t>
   </si>
   <si>
     <t>template</t>
   </si>
   <si>
-    <t>La Fonction doit récuperer les données de l'API et les traduire en format Javascript pour pouvoir me servir de ces données, ensuite, elle sélectionne l'endroit ou afficher mes données sur ma page web, puis elle clone mes "blocks" d'affichage autant de fois qu'il y a d'élements different,</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ma page web n'affiche pas les éléments, ou s'il ne sont pas au bon endroit, si le clonage de mes blocks ne se font pas.</t>
   </si>
   <si>
@@ -111,9 +102,6 @@
     <t>La Fonction récupère les données de l'id qui à été sellectionné et affiche les données au bon endroit sur ma page web. Elle ajoute aussi un style de couleurs pour chaques colors de mon article.</t>
   </si>
   <si>
-    <t>L'id de l'article n'est pas récupérer si la fonction n'est pas bien paramétrer, la promise n'est pas résolu ou l'URL n'est pas correcte.</t>
-  </si>
-  <si>
     <t>Vérifier que mon articles s'affiche correctement sur ma page, que mes styles de couleurs se mette en forme, que mes données soit affiché au bon endroit, observer que la valeur retournée dans la console Google Chrome avec un console.log corresponde bien aux informations de l'id qui à été sélèctionné.</t>
   </si>
   <si>
@@ -148,6 +136,36 @@
   </si>
   <si>
     <t>Mauvaise ecriture de code qui entrainerai un message d'erreur, qui ne declencherai pas ma fonction ou qui ne recupererai pas l'article en question</t>
+  </si>
+  <si>
+    <t>Panier.js</t>
+  </si>
+  <si>
+    <t>Ligne 50 à 94</t>
+  </si>
+  <si>
+    <t>onClickButton(e)</t>
+  </si>
+  <si>
+    <t>Fonction qui place les .values du formulaire dans un Objet, qui place aussi les _id de chaques articles sélèctionné dans un tableau, et qui au final place l'objet valeur + le [_id] dans un objet afin de l'envoyé vers le serveur en méthode POST. La fonction crée/stock aussi une valeur orderId dans le localStorage.</t>
+  </si>
+  <si>
+    <t>On peut verifier le resultat grace au console.log pour voir si l'objet/tableau ont bien été crée, si orderId à bien été stocker dans le localStorage, Si la methode POST de l'envoi au serveur c'est bien effectué et quon a bien en retour le numéros de commande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que les values formulaire soit mal récuperer, que l'objet et le tableau soit mal défini ou que la méthode POST soit mal appelée ce qui refait une requete au serveur non valide </t>
+  </si>
+  <si>
+    <t>Observer la valeur retournée dans la console Google Chrome avec un console.log par exemple, Ou changer une partie de l'URL(ce qui ne donnera pas de résultat).</t>
+  </si>
+  <si>
+    <t>Si la fonction/URL est mal décrite, alors il n'y aura pas de promise vers l'API.</t>
+  </si>
+  <si>
+    <t>La Fonction doit récuperer les données de l'API et les traduire en format Javascript pour pouvoir me servir de ces données, ensuite, elle sélectionne l'endroit ou afficher mes données sur ma page web, puis elle clone mes "blocks" d'affichage autant de fois qu'il y a d'élements differents.</t>
+  </si>
+  <si>
+    <t>L'id de l'article n'est pas récupéré si la fonction n'est pas bien paramétré, la promise n'est pas résolu ou l'URL n'est pas correcte.</t>
   </si>
 </sst>
 </file>
@@ -163,15 +181,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -194,31 +230,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -229,16 +245,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -557,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC8C431-D8B6-4A23-A381-9C220601DE34}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,33 +626,33 @@
         <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -642,83 +664,83 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>25</v>
+      <c r="G6" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -729,13 +751,25 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+    <row r="11" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
@@ -801,14 +835,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="2:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
+    <row r="20" spans="2:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>

--- a/Plan de Test.xlsx
+++ b/Plan de Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Git\JWDP5\JWDP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B85184-8E4F-49BB-946C-E6AFB0E6D63D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07DFDA5-3E5D-49A5-8913-A55FB0E5E849}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8B526EB1-2F09-4841-9884-4E1F77679833}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Fonction testée</t>
   </si>
   <si>
-    <t>Résultat attentdu</t>
-  </si>
-  <si>
-    <t>Comment Vérifier le resultat attendu</t>
-  </si>
-  <si>
     <t>Problème possible</t>
   </si>
   <si>
@@ -72,24 +66,12 @@
     <t>template</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ma page web n'affiche pas les éléments, ou s'il ne sont pas au bon endroit, si le clonage de mes blocks ne se font pas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observer la valeur retournée dans la console Google Chrome avec un console.log par exemple, vérifier si l'affichage de ma page web correspond au résultat voulu. Changer une partie du code ou supprimer le système de clonage ne donnera pas de résultat et affichera un message d'erreur dans la console. </t>
-  </si>
-  <si>
     <t>Produits.js</t>
   </si>
   <si>
     <t>Ligne 5 à 8</t>
   </si>
   <si>
-    <t xml:space="preserve">La Fonction doit récupérer les informations de/des articles sélèctionnés dans la page d'accueil grace à son identifiant (_id). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observer que la valeur retournée dans la console Google Chrome avec un console.log corresponde bien à l'id de l'article qui a été sélèctionné sur la page d'accueil, et qu'il contient bien les informmations de l'article. </t>
-  </si>
-  <si>
     <t>Ligne 10 à 31</t>
   </si>
   <si>
@@ -99,45 +81,15 @@
     <t>findTeddy(param)</t>
   </si>
   <si>
-    <t>La Fonction récupère les données de l'id qui à été sellectionné et affiche les données au bon endroit sur ma page web. Elle ajoute aussi un style de couleurs pour chaques colors de mon article.</t>
-  </si>
-  <si>
-    <t>Vérifier que mon articles s'affiche correctement sur ma page, que mes styles de couleurs se mette en forme, que mes données soit affiché au bon endroit, observer que la valeur retournée dans la console Google Chrome avec un console.log corresponde bien aux informations de l'id qui à été sélèctionné.</t>
-  </si>
-  <si>
-    <t>Mauvais/non affichage des récupération des données entrainant un message d'erreur, style couleurs qui ne s'affiche pas.</t>
-  </si>
-  <si>
-    <t>Ligne 39 à 42</t>
-  </si>
-  <si>
-    <t>finTeddy(id)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ligne 47 à 79 </t>
   </si>
   <si>
     <t>onClick(e)</t>
   </si>
   <si>
-    <t>Fonction qui est appelez au click de mon bouton addToCart.addEventListenner, qui va recuperer la quantité selectionné dans l'input de ma page, qui va récuperer mon [article], le parser si il est déjà present ou le crée, s'il existe alors il va recupérer sont id et additionner la nouvelle quantité sélecitonnée, s'il nexiste pas alor il ajoute larticle et ajoute la quantité pour enfin stocké cette valeur dans le localStorage.</t>
-  </si>
-  <si>
-    <t>Pour vérifier le resultat, On ouvre la partie "application" de la console Google Chrome, puis localStorage voir si notre [article] a bien été ajouté AVEC sa valeur quantité a l'intérieur et si la quantité correspond bien a input.value</t>
-  </si>
-  <si>
     <t>Que [article] ne se stock pas dans le localStorage, que la valeur quantité ne se stock pas dans [article] ou qu'elle ne s'additionne pas avec l'ancienne valeur si le meme article était déjà present dans le localStorage.</t>
   </si>
   <si>
-    <t>Fonction qui renvoi une promise qui me donnera mon article mais qui ne renvoi rien grace a la methode .then,  mais qui declenche ma methode template après avoir récupérer mon article</t>
-  </si>
-  <si>
-    <t>Grace au console.log de response et si un article est bien récuperé et que donc ma fonction template se declenche correctement</t>
-  </si>
-  <si>
-    <t>Mauvaise ecriture de code qui entrainerai un message d'erreur, qui ne declencherai pas ma fonction ou qui ne recupererai pas l'article en question</t>
-  </si>
-  <si>
     <t>Panier.js</t>
   </si>
   <si>
@@ -147,25 +99,58 @@
     <t>onClickButton(e)</t>
   </si>
   <si>
-    <t>Fonction qui place les .values du formulaire dans un Objet, qui place aussi les _id de chaques articles sélèctionné dans un tableau, et qui au final place l'objet valeur + le [_id] dans un objet afin de l'envoyé vers le serveur en méthode POST. La fonction crée/stock aussi une valeur orderId dans le localStorage.</t>
-  </si>
-  <si>
-    <t>On peut verifier le resultat grace au console.log pour voir si l'objet/tableau ont bien été crée, si orderId à bien été stocker dans le localStorage, Si la methode POST de l'envoi au serveur c'est bien effectué et quon a bien en retour le numéros de commande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Que les values formulaire soit mal récuperer, que l'objet et le tableau soit mal défini ou que la méthode POST soit mal appelée ce qui refait une requete au serveur non valide </t>
-  </si>
-  <si>
     <t>Observer la valeur retournée dans la console Google Chrome avec un console.log par exemple, Ou changer une partie de l'URL(ce qui ne donnera pas de résultat).</t>
   </si>
   <si>
     <t>Si la fonction/URL est mal décrite, alors il n'y aura pas de promise vers l'API.</t>
   </si>
   <si>
-    <t>La Fonction doit récuperer les données de l'API et les traduire en format Javascript pour pouvoir me servir de ces données, ensuite, elle sélectionne l'endroit ou afficher mes données sur ma page web, puis elle clone mes "blocks" d'affichage autant de fois qu'il y a d'élements differents.</t>
-  </si>
-  <si>
-    <t>L'id de l'article n'est pas récupéré si la fonction n'est pas bien paramétré, la promise n'est pas résolu ou l'URL n'est pas correcte.</t>
+    <t>Résultat attendu</t>
+  </si>
+  <si>
+    <t>L'id de l'article n'est pas récupéré si la fonction n'est pas bien paramétrée, la promise n'est pas résolue ou l'URL n'est pas correcte.</t>
+  </si>
+  <si>
+    <t>Vérifier que mon article s'affiche correctement sur ma page, que mes styles de couleurs se mettent en forme, que mes données soient affichées au bon endroit, observer que la valeur retournée dans la console Google Chrome avec un console.log corresponde bien aux informations de l'id qui à été sélèctionné.</t>
+  </si>
+  <si>
+    <t>Mauvais ou non affichage des récupérations des données entrainant un message d'erreur, style couleurs qui ne s'affiche pas.</t>
+  </si>
+  <si>
+    <t>Comment Vérifier le résultat attendu</t>
+  </si>
+  <si>
+    <t>La Fonction doit récuperer les données de l'API et les traduire en format Javascript pour pouvoir me servir de ces données, ensuite, elle recupere la DIV ou l'on souhaite afficher les données sur la page web, puis elle clone mon template HTML autant de fois qu'il y a d'élements differents.</t>
+  </si>
+  <si>
+    <t>Vérifier si l'affichage de ma page web correspond au résultat voulu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ma page web n'affiche pas les éléments, ou s'ils ne sont pas au bon endroit, si le clonage du template est mal défini.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Fonction doit récupérer les informations de/des articles sélectionné(s) grace à son identifiant (_id). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observer que la valeur retournée dans la console Google Chrome avec un console.log corresponde bien à l'id de l'article qui a été sélectionné, et qu'il contient bien les informmations de l'article. </t>
+  </si>
+  <si>
+    <t>La Fonction associe les données de l'articles qui ont été selectioné et  affiche les données au bon endroit sur ma page web. Elle ajoute aussi un style de couleurs pour chaque colors de mon article.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonction qui est appelée au click de mon bouton addToCart.addEventListenner, qui va récuperer la quantité sélectionnée dans l'input de ma page. La Fonction recupère les articles déjà stocker dans le localStorage. Y ajoute l'article correspondant a la page ou incrémente la quantité s'il est deja present. </t>
+  </si>
+  <si>
+    <t>Pour vérifier le resultat, On ouvre la partie "application" de la console Google Chrome, puis localStorage voir si notre [article] a bien été ajouté AVEC sa valeur quantité a l'intérieur.</t>
+  </si>
+  <si>
+    <t>Fonction qui place les .values du formulaire dans un Objet, qui place aussi les _id de chaque articles sélectionnés dans un tableau, et qui au final place l'objet valeur + le [_id] dans un objet afin de l'envoyer vers le serveur en méthode POST. Elle extrait un orderId de la réponse du serveur et stock la valeur dans le localStorage.</t>
+  </si>
+  <si>
+    <t>On peut vérifier le résultat dans "application" et localStorage de la console pour voir si l'objet/tableau ont bien été créé, Si la methode POST de l'envoi au serveur c'est bien effectuée et qu'on a bien en retour le numéro de commande.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que les values formulaire soient mal récuperées, que l'objet et le tableau soient mal définis ou que la méthode POST soit mal appelée ce qui donne une requête au serveur non valide. </t>
   </si>
 </sst>
 </file>
@@ -234,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -261,6 +246,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -577,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC8C431-D8B6-4A23-A381-9C220601DE34}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,53 +594,53 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -665,111 +653,99 @@
     </row>
     <row r="6" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="D10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>39</v>
-      </c>
+    </row>
+    <row r="11" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
@@ -827,15 +803,15 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="2:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="2:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
     <row r="21" spans="2:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -900,7 +876,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1036,14 +1012,6 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Plan de Test.xlsx
+++ b/Plan de Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Git\JWDP5\JWDP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07DFDA5-3E5D-49A5-8913-A55FB0E5E849}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61796CB7-7647-472F-9F3A-2882B3F4F93B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8B526EB1-2F09-4841-9884-4E1F77679833}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -151,13 +151,73 @@
   </si>
   <si>
     <t xml:space="preserve">Que les values formulaire soient mal récuperées, que l'objet et le tableau soient mal définis ou que la méthode POST soit mal appelée ce qui donne une requête au serveur non valide. </t>
+  </si>
+  <si>
+    <t>Ligne 15 à 44</t>
+  </si>
+  <si>
+    <t>onPanier</t>
+  </si>
+  <si>
+    <t>La Fonction sert à afficher mes articles sur la page web, à cloner mon template HTML autant de fois qu'il y a d'éléments différents, et à placer ma variable prixTotal dans le localStorage</t>
+  </si>
+  <si>
+    <t>Pour vérifier le resultat, On ouvre la partie "application" de la console Google Chrome, puis localStorage voir si notre variable prixTotal à bien été ajouté, et on verifie sur notre page web que les éléments s'affiche bien au bon endroit.</t>
+  </si>
+  <si>
+    <t>Mauvais ou non affichage de mes articles sur la page, que ma variable prixTotal ne se stock pas dans le localStorage.</t>
+  </si>
+  <si>
+    <t>confirme.js</t>
+  </si>
+  <si>
+    <t>Ligne 2 à 12</t>
+  </si>
+  <si>
+    <t>localVariable</t>
+  </si>
+  <si>
+    <t>Fonction qui va récupérer ma variable prixTotal dans le localStorage et la parser, puis qui affiche le resultat au bon endroit sur ma page.</t>
+  </si>
+  <si>
+    <t>Si la valeur de ma variable prixTotal est bien récuperer et qu'elle s'affiche bien au bon endroit sur ma page web.</t>
+  </si>
+  <si>
+    <t>Mauvaise récupération de ma variable dans le localStorage ou mauvais affichage de ma valeur dans ma page web.</t>
+  </si>
+  <si>
+    <t>confirm.js</t>
+  </si>
+  <si>
+    <t>Ligne 17 à 34</t>
+  </si>
+  <si>
+    <t>orderIdAndReturn</t>
+  </si>
+  <si>
+    <t>Fonction qui récupère la valeur de l'oderId généré par le serveur dans le localStorage et qui l'affiche au bon endroit sur ma page, ensuite au click sur le button "btnReturn", elle redirige l'utilisateur sur la page d'accueil.</t>
+  </si>
+  <si>
+    <t>Que la valeur de orderId ne s'affiche pas / ou pas au bon endroit, et si la redirection de mon button ne marche pas.</t>
+  </si>
+  <si>
+    <t>Regarder sur ma page web si la valeur de orderId est bien récupérer du localStorage et cliquer sur le button pour verifier que la redirection se passe normalement.</t>
+  </si>
+  <si>
+    <t>Moyenne :</t>
+  </si>
+  <si>
+    <t>Ligne de code Javascript : (en enlevant tout les espaces et les commantaires)</t>
+  </si>
+  <si>
+    <t>Ligne de code present dans le plan de test :(en enlevant tout les espaces et les commantaires)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,8 +225,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +257,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,14 +300,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -250,6 +328,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC8C431-D8B6-4A23-A381-9C220601DE34}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,242 +666,291 @@
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="82.42578125" customWidth="1"/>
     <col min="6" max="6" width="70.85546875" customWidth="1"/>
-    <col min="7" max="7" width="52.42578125" customWidth="1"/>
+    <col min="7" max="7" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
     <row r="12" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="B13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="5">
+        <v>133</v>
+      </c>
+      <c r="F17" s="5">
+        <v>119</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.89470000000000005</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="2:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -876,7 +1015,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1012,7 +1151,16 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Plan de Test.xlsx
+++ b/Plan de Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Git\JWDP5\JWDP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61796CB7-7647-472F-9F3A-2882B3F4F93B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7B9301-A4F4-47FE-B153-D9543AB10EF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8B526EB1-2F09-4841-9884-4E1F77679833}"/>
   </bookViews>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC8C431-D8B6-4A23-A381-9C220601DE34}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Plan de Test.xlsx
+++ b/Plan de Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Git\JWDP5\JWDP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7B9301-A4F4-47FE-B153-D9543AB10EF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4251D24-AE97-47ED-A6F8-0A8682B35DA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8B526EB1-2F09-4841-9884-4E1F77679833}"/>
   </bookViews>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC8C431-D8B6-4A23-A381-9C220601DE34}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,13 +925,13 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F17" s="5">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G17" s="13">
-        <v>0.89470000000000005</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
